--- a/medicine/Mort/Cimetière_pour_animaux/Cimetière_pour_animaux.xlsx
+++ b/medicine/Mort/Cimetière_pour_animaux/Cimetière_pour_animaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_pour_animaux</t>
+          <t>Cimetière_pour_animaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cimetière pour animaux est un lieu de rassemblement de sépultures d'animaux au sein d'une société humaine dans un but généralement cultuel (animaux sacrés, sacrifiés ou non) ou honorifique. Y sont enterrés le plus souvent des animaux domestiqués : chats, chiens, chevaux, béliers, etc., mais aussi singes, ibis, crocodiles, etc. (Égypte antique, etc.).
 Ceci exclut a priori :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_pour_animaux</t>
+          <t>Cimetière_pour_animaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le roman et les films Simetierre.
 le film Gates of Heaven</t>
